--- a/Z1 Div and Corp Loans+levels.xlsx
+++ b/Z1 Div and Corp Loans+levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakulagin/Documents/AI/Sovcombank/VIBE_MODELING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD7B46E-B703-404E-9AA3-E4F300143FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2E6C8-A442-A743-8FF3-CDA57B11F7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9433,10 +9433,10 @@
   <dimension ref="A1:BU740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="BE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:BU5"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
